--- a/input/indicators/WASH list of indicators 2021_final.xlsx
+++ b/input/indicators/WASH list of indicators 2021_final.xlsx
@@ -466,6 +466,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -476,9 +479,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,12 +772,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -790,39 +790,39 @@
     <col min="6" max="6" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="32.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="49.5546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.21875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="3" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="27.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.21875" style="3" customWidth="1"/>
     <col min="19" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
       <c r="R1" s="3" t="s">
         <v>72</v>
       </c>
@@ -872,71 +872,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>41</v>
@@ -945,7 +906,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -955,7 +916,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="14"/>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>34</v>
@@ -972,7 +933,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="7" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>43</v>
@@ -984,37 +945,37 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>47</v>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>41</v>
@@ -1023,185 +984,189 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="12" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
+      <c r="D10" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>53</v>
+      <c r="K10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="60.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>61</v>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
+      <c r="K11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1210,8 +1175,8 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="7" t="s">
-        <v>44</v>
+      <c r="D12" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>45</v>
@@ -1223,20 +1188,20 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="7" t="s">
-        <v>60</v>
+      <c r="K12" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>41</v>
+      <c r="M12" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1246,43 +1211,77 @@
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" t="s">
         <v>71</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="R1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -1293,12 +1292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1307,7 +1300,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A559C4740925E445AF0B2B750D1B7473" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="906bf6171cc09e52267921fda83b0e92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e" xmlns:ns4="bd40c1a4-aba5-4c6e-9265-7d967b595228" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b40f89ec4c18827ee4e1ba452517ca9" ns3:_="" ns4:_="">
     <xsd:import namespace="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
@@ -1518,24 +1511,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7107561B-BEC8-4C1C-BD05-AAAEF96AD717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A35A9-D286-47CC-A6B7-E55633B0A4CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1543,7 +1525,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5B689F-259F-4A2A-930C-0F764D0F55A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1560,4 +1542,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7107561B-BEC8-4C1C-BD05-AAAEF96AD717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/input/indicators/WASH list of indicators 2021_final.xlsx
+++ b/input/indicators/WASH list of indicators 2021_final.xlsx
@@ -775,16 +775,16 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="9" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="35.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.44140625" style="3" bestFit="1" customWidth="1"/>
@@ -1292,12 +1292,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,15 +1509,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A35A9-D286-47CC-A6B7-E55633B0A4CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7107561B-BEC8-4C1C-BD05-AAAEF96AD717}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1545,18 +1554,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7107561B-BEC8-4C1C-BD05-AAAEF96AD717}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A35A9-D286-47CC-A6B7-E55633B0A4CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3c03b9d1-50a6-43a4-ac1d-3b3601202a1e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bd40c1a4-aba5-4c6e-9265-7d967b595228"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>